--- a/study 일정.xlsx
+++ b/study 일정.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\업무 外\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Study\파이썬 알고리즘 문제풀이\Python_Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="19320" windowHeight="8295"/>
+    <workbookView xWindow="6480" yWindow="0" windowWidth="19320" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,18 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31/32 강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33/34 강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카드 역배치
 두 리스트 합치기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +179,18 @@
   </si>
   <si>
     <t>29/30 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32/33 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33/35 강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>44396</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -877,7 +877,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -891,7 +891,7 @@
         <v>44398</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -967,7 +967,7 @@
         <v>44403</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -981,7 +981,7 @@
         <v>44404</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -995,7 +995,7 @@
         <v>44405</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>

--- a/study 일정.xlsx
+++ b/study 일정.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="0" windowWidth="19320" windowHeight="8295"/>
+    <workbookView xWindow="9720" yWindow="0" windowWidth="19320" windowHeight="8295" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="파이썬 문제 풀이" sheetId="3" r:id="rId1"/>
+    <sheet name="7월" sheetId="1" r:id="rId2"/>
+    <sheet name="8월" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>Effective Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +193,248 @@
   </si>
   <si>
     <t>33/35 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 문제 풀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34강, 35강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 3</t>
+  </si>
+  <si>
+    <t>섹션 4</t>
+  </si>
+  <si>
+    <t>섹션 5</t>
+  </si>
+  <si>
+    <t>섹션 6</t>
+  </si>
+  <si>
+    <t>섹션 7</t>
+  </si>
+  <si>
+    <t>섹션 8</t>
+  </si>
+  <si>
+    <t>섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 문제수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푼 문제수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 랜선자르기
+3. 뮤직비디오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 마구간 정하기
+5. 회의실 배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 씨름선수
+7. 창고 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 침몰하는 타이타닉
+9. 증가수열 만들기
+10. 역수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37강, 38강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39강, 40강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 가장큰수
+2. 쇠막대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 후위표기식 만들기
+4. 후위식 연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 공주구하기
+6. 응급실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41강, 42강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 교육과정 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44강, 45강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 단어찾기
+9. 아나그램(구글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 최소합
+11. 최대합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 재귀함수란(이진수출력)
+2. 부분집합 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 합이 같은 부분집합
+5. 바둑이 승차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47강, 48강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49강, 50강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 중복순열 구하기
+7. 동전교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 순열 구하기
+9. 수열 추측하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 조합 구하기
+11. 수들의 조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52강, 53강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일 쉼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일 쉼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +496,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +521,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,12 +561,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,8 +606,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,10 +920,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20">
+        <f>(F5/E5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G12" si="0">(F6/E6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="14">
+        <v>11</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="14">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="14">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="14">
+        <v>13</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="8"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="14">
+        <f>SUM(E5:E12)</f>
+        <v>96</v>
+      </c>
+      <c r="F14" s="14">
+        <f>SUM(F5:F12)</f>
+        <v>31</v>
+      </c>
+      <c r="G14" s="20">
+        <f>(F14/E14)</f>
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1487,9 @@
         <v>28</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -1027,7 +1503,9 @@
         <v>29</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -1041,7 +1519,9 @@
         <v>30</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
@@ -1118,4 +1598,517 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="9">
+        <v>44410</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <v>44411</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C9" s="9">
+        <v>44412</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C10" s="9">
+        <v>44413</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C11" s="9">
+        <v>44414</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="3:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C12" s="9">
+        <v>44415</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
+        <v>44416</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="9">
+        <v>44417</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="9">
+        <v>44418</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="9">
+        <v>44419</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C17" s="9">
+        <v>44420</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C18" s="9">
+        <v>44421</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C19" s="9">
+        <v>44422</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="9">
+        <v>44423</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="9">
+        <v>44424</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="9">
+        <v>44425</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C23" s="9">
+        <v>44426</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C24" s="9">
+        <v>44427</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C25" s="9">
+        <v>44428</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C26" s="9">
+        <v>44429</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="9">
+        <v>44430</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="9">
+        <v>44431</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="9">
+        <v>44432</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="9">
+        <v>44433</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C31" s="9">
+        <v>44434</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C32" s="9">
+        <v>44435</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="C33" s="9">
+        <v>44436</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="9">
+        <v>44437</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="9">
+        <v>44438</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="9">
+        <v>44439</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/study 일정.xlsx
+++ b/study 일정.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Study\파이썬 알고리즘 문제풀이\Python_Algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CBigO\Desktop\어려운거\Python_Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C0618C-E1FD-4D68-9922-EFF81668AC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="0" windowWidth="19320" windowHeight="8295" activeTab="2"/>
+    <workbookView xWindow="-10605" yWindow="-4410" windowWidth="10725" windowHeight="20730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="파이썬 문제 풀이" sheetId="3" r:id="rId1"/>
     <sheet name="7월" sheetId="1" r:id="rId2"/>
     <sheet name="8월" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Effective Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,24 +360,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>43강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41강, 42강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 교육과정 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>44강, 45강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 단어찾기
-9. 아나그램(구글)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,11 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 합이 같은 부분집합
-5. 바둑이 승차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>46강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,45 +382,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>49강, 50강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 중복순열 구하기
-7. 동전교환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 순열 구하기
-9. 수열 추측하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 조합 구하기
-11. 수들의 조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52강, 53강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일요일 쉼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일요일 쉼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42강, 43강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 교육과정 설계
+8. 단어찾기
+9. 아나그램(구글)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -569,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,6 +604,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1092,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:F53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1601,11 +1573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C5:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1654,9 +1626,7 @@
       <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1669,15 +1639,13 @@
       <c r="D8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9" s="9">
         <v>44412</v>
       </c>
@@ -1685,14 +1653,12 @@
         <v>48</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" s="9">
         <v>44413</v>
       </c>
@@ -1700,14 +1666,12 @@
         <v>49</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="21" t="s">
-        <v>72</v>
-      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" s="9">
         <v>44414</v>
       </c>
@@ -1715,14 +1679,12 @@
         <v>50</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="3:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" s="9">
         <v>44415</v>
       </c>
@@ -1730,9 +1692,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="13"/>
@@ -1746,9 +1706,7 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="13"/>
     </row>
@@ -1760,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -1775,24 +1733,24 @@
         <v>45</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" ht="33" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
         <v>44419</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
@@ -1806,7 +1764,7 @@
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -1821,13 +1779,13 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C19" s="9">
         <v>44422</v>
       </c>
@@ -1836,7 +1794,7 @@
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -1849,13 +1807,11 @@
       <c r="D20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
     </row>
@@ -1867,9 +1823,9 @@
         <v>43</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
@@ -1882,24 +1838,24 @@
         <v>45</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="9">
         <v>44426</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="21" t="s">
-        <v>85</v>
-      </c>
+      <c r="E23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
@@ -1913,7 +1869,7 @@
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -1928,7 +1884,7 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -1943,7 +1899,7 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -1959,7 +1915,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="13"/>
@@ -1972,7 +1928,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1987,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -2002,14 +1958,14 @@
         <v>47</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="3:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C31" s="9">
         <v>44434</v>
       </c>
@@ -2018,7 +1974,7 @@
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -2033,7 +1989,7 @@
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -2048,7 +2004,7 @@
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -2062,9 +2018,9 @@
         <v>52</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="13"/>
@@ -2077,7 +2033,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -2092,7 +2048,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -2102,6 +2058,98 @@
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="12"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
